--- a/tut05/output/0401EE24.xlsx
+++ b/tut05/output/0401EE24.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.061224489795919</v>
+        <v>7.06</v>
       </c>
       <c r="C6" t="n">
-        <v>5.636363636363637</v>
+        <v>5.64</v>
       </c>
       <c r="D6" t="n">
-        <v>6.673913043478261</v>
+        <v>6.67</v>
       </c>
       <c r="E6" t="n">
-        <v>7.695652173913044</v>
+        <v>7.7</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>8.125</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>8.651162790697674</v>
+        <v>8.65</v>
       </c>
       <c r="I6" t="n">
-        <v>8.263157894736842</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.061224489795919</v>
+        <v>7.06</v>
       </c>
       <c r="C8" t="n">
-        <v>6.387096774193548</v>
+        <v>6.39</v>
       </c>
       <c r="D8" t="n">
-        <v>6.482014388489208</v>
+        <v>6.48</v>
       </c>
       <c r="E8" t="n">
-        <v>6.783783783783784</v>
+        <v>6.78</v>
       </c>
       <c r="F8" t="n">
-        <v>6.995535714285714</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>7.166666666666667</v>
+        <v>7.17</v>
       </c>
       <c r="H8" t="n">
-        <v>7.374592833876221</v>
+        <v>7.37</v>
       </c>
       <c r="I8" t="n">
-        <v>7.472463768115942</v>
+        <v>7.47</v>
       </c>
     </row>
   </sheetData>
